--- a/BackTest/2019-10-31 BackTest RDN.xlsx
+++ b/BackTest/2019-10-31 BackTest RDN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M116"/>
+  <dimension ref="A1:N116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,6 +759,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -787,6 +801,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -828,6 +843,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -863,6 +879,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -902,6 +919,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -945,6 +963,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -986,6 +1005,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1021,6 +1041,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1060,6 +1081,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1101,6 +1123,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1142,6 +1165,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1177,6 +1201,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1212,6 +1237,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1247,6 +1273,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1282,6 +1309,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1317,6 +1345,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1352,6 +1381,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1387,6 +1417,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1422,6 +1453,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1457,6 +1489,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1492,6 +1525,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1527,6 +1561,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1562,6 +1597,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1589,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1597,6 +1633,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1632,6 +1669,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1667,6 +1705,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1702,6 +1741,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1737,6 +1777,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1772,6 +1813,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1807,6 +1849,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1842,6 +1885,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1877,6 +1921,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1912,6 +1957,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1947,6 +1993,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1982,6 +2029,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2017,6 +2065,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2052,6 +2101,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2087,6 +2137,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2122,6 +2173,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2157,6 +2209,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2192,6 +2245,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2227,6 +2281,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2262,6 +2317,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2297,6 +2353,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2332,6 +2389,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2367,6 +2425,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,6 +2461,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2437,6 +2497,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,6 +2533,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2507,6 +2569,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2542,6 +2605,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2577,6 +2641,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2612,6 +2677,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2647,6 +2713,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2682,6 +2749,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2717,6 +2785,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2752,6 +2821,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2787,6 +2857,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2822,6 +2893,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2857,6 +2929,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2892,6 +2965,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2927,6 +3001,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2962,6 +3037,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2997,6 +3073,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3032,6 +3109,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3067,6 +3145,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3102,6 +3181,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3137,6 +3217,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3172,6 +3253,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3207,6 +3289,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3242,6 +3325,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3269,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3277,6 +3361,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3304,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3312,6 +3397,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3347,6 +3433,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3382,6 +3469,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3417,6 +3505,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3452,6 +3541,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3479,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3487,6 +3577,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3514,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3522,6 +3613,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3557,6 +3649,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3592,6 +3685,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3627,6 +3721,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3662,6 +3757,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3689,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3697,6 +3793,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3732,6 +3829,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3767,6 +3865,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3802,6 +3901,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3837,6 +3937,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3872,6 +3973,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3907,6 +4009,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3934,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -3942,6 +4045,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3977,6 +4081,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4016,6 +4121,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4043,7 +4149,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
         <v>181</v>
@@ -4059,6 +4165,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4086,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
@@ -4100,6 +4207,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4141,6 +4249,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4182,6 +4291,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4223,6 +4333,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4264,6 +4375,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4307,6 +4419,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4348,6 +4461,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4391,6 +4505,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4432,6 +4547,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4475,6 +4591,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4516,6 +4633,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4557,6 +4675,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4598,6 +4717,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-31 BackTest RDN.xlsx
+++ b/BackTest/2019-10-31 BackTest RDN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C2" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D2" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E2" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F2" t="n">
-        <v>2000</v>
+        <v>257</v>
       </c>
       <c r="G2" t="n">
-        <v>-10323.3495909855</v>
+        <v>-843.435386067471</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -477,19 +477,19 @@
         <v>180</v>
       </c>
       <c r="C3" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D3" t="n">
         <v>180</v>
       </c>
       <c r="E3" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F3" t="n">
-        <v>8272.874299999999</v>
+        <v>3862.7529</v>
       </c>
       <c r="G3" t="n">
-        <v>-18596.2238909855</v>
+        <v>-4706.18828606747</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,31 +510,35 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C4" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D4" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E4" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F4" t="n">
-        <v>7012.4524</v>
+        <v>2391.9999</v>
       </c>
       <c r="G4" t="n">
-        <v>-18596.2238909855</v>
+        <v>-2314.188386067471</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>179</v>
+      </c>
+      <c r="K4" t="n">
+        <v>179</v>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
@@ -546,22 +550,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C5" t="n">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D5" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E5" t="n">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F5" t="n">
-        <v>8787.146699999999</v>
+        <v>1230.7191</v>
       </c>
       <c r="G5" t="n">
-        <v>-27383.37059098551</v>
+        <v>-2314.188386067471</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -570,8 +574,14 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>179</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,22 +592,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C6" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D6" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E6" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>273</v>
       </c>
       <c r="G6" t="n">
-        <v>-27382.37059098551</v>
+        <v>-2314.188386067471</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -606,8 +616,14 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>179</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -621,28 +637,32 @@
         <v>180</v>
       </c>
       <c r="C7" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D7" t="n">
         <v>180</v>
       </c>
       <c r="E7" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F7" t="n">
-        <v>879.6224999999999</v>
+        <v>2228.9137</v>
       </c>
       <c r="G7" t="n">
-        <v>-28261.99309098551</v>
+        <v>-4543.102086067471</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>181</v>
+      </c>
+      <c r="K7" t="n">
+        <v>181</v>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
@@ -654,32 +674,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C8" t="n">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D8" t="n">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E8" t="n">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F8" t="n">
-        <v>5389.6633</v>
+        <v>4922.0897</v>
       </c>
       <c r="G8" t="n">
-        <v>-28261.99309098551</v>
+        <v>378.9876139325297</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>180</v>
+      </c>
+      <c r="K8" t="n">
+        <v>181</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,22 +718,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C9" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D9" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E9" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F9" t="n">
-        <v>18063.8685</v>
+        <v>572.4157</v>
       </c>
       <c r="G9" t="n">
-        <v>-10198.12459098551</v>
+        <v>378.9876139325297</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -714,8 +742,14 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>181</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,35 +760,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C10" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D10" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E10" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F10" t="n">
-        <v>225.3423</v>
+        <v>2240.0457</v>
       </c>
       <c r="G10" t="n">
-        <v>-10198.12459098551</v>
+        <v>-1861.05808606747</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>178</v>
-      </c>
-      <c r="K10" t="n">
-        <v>178</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
@@ -766,22 +796,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C11" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D11" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E11" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F11" t="n">
-        <v>3115.3033</v>
+        <v>60.1803</v>
       </c>
       <c r="G11" t="n">
-        <v>-10198.12459098551</v>
+        <v>-1861.05808606747</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -790,14 +820,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>178</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -808,22 +832,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C12" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D12" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E12" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F12" t="n">
-        <v>10666</v>
+        <v>1000</v>
       </c>
       <c r="G12" t="n">
-        <v>-10198.12459098551</v>
+        <v>-1861.05808606747</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -832,14 +856,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>178</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -850,22 +868,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C13" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D13" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E13" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F13" t="n">
-        <v>12074.8165</v>
+        <v>2021.2111</v>
       </c>
       <c r="G13" t="n">
-        <v>-10198.12459098551</v>
+        <v>-1861.05808606747</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -898,23 +916,19 @@
         <v>181</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>1240.5302</v>
       </c>
       <c r="G14" t="n">
-        <v>-10197.12459098551</v>
+        <v>-1861.05808606747</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>178</v>
-      </c>
-      <c r="K14" t="n">
-        <v>178</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
@@ -926,40 +940,32 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C15" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D15" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E15" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F15" t="n">
-        <v>2663.2245</v>
+        <v>760.0118</v>
       </c>
       <c r="G15" t="n">
-        <v>-12860.34909098551</v>
+        <v>-1861.05808606747</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>181</v>
-      </c>
-      <c r="K15" t="n">
-        <v>178</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -970,22 +976,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C16" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D16" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E16" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F16" t="n">
-        <v>4473.4984</v>
+        <v>660</v>
       </c>
       <c r="G16" t="n">
-        <v>-12860.34909098551</v>
+        <v>-1201.05808606747</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -994,14 +1000,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>178</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1012,22 +1012,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C17" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D17" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E17" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F17" t="n">
-        <v>3427.8452</v>
+        <v>100</v>
       </c>
       <c r="G17" t="n">
-        <v>-12860.34909098551</v>
+        <v>-1201.05808606747</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1048,35 +1048,31 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C18" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D18" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E18" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F18" t="n">
-        <v>2565.9996</v>
+        <v>1565.9999</v>
       </c>
       <c r="G18" t="n">
-        <v>-12860.34909098551</v>
+        <v>-2767.057986067471</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>179</v>
-      </c>
-      <c r="K18" t="n">
-        <v>179</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
@@ -1088,22 +1084,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C19" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D19" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E19" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F19" t="n">
-        <v>7175.4119</v>
+        <v>1960.7268</v>
       </c>
       <c r="G19" t="n">
-        <v>-12860.34909098551</v>
+        <v>-2767.057986067471</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1112,14 +1108,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>179</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1130,22 +1120,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C20" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D20" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E20" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F20" t="n">
-        <v>2000</v>
+        <v>949.2889</v>
       </c>
       <c r="G20" t="n">
-        <v>-12860.34909098551</v>
+        <v>-1817.769086067471</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1154,14 +1144,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>179</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1172,22 +1156,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C21" t="n">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D21" t="n">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E21" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F21" t="n">
-        <v>3879.4105</v>
+        <v>5566.249787431694</v>
       </c>
       <c r="G21" t="n">
-        <v>-12860.34909098551</v>
+        <v>3748.480701364223</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1208,22 +1192,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C22" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D22" t="n">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E22" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F22" t="n">
-        <v>239.9999</v>
+        <v>3623.899092349727</v>
       </c>
       <c r="G22" t="n">
-        <v>-12860.34909098551</v>
+        <v>124.5816090144963</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1244,22 +1228,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C23" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D23" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E23" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F23" t="n">
-        <v>16398.539</v>
+        <v>4900</v>
       </c>
       <c r="G23" t="n">
-        <v>-29258.88809098551</v>
+        <v>5024.581609014496</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1280,22 +1264,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C24" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D24" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E24" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F24" t="n">
-        <v>559.857</v>
+        <v>5000</v>
       </c>
       <c r="G24" t="n">
-        <v>-29258.88809098551</v>
+        <v>5024.581609014496</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1316,28 +1300,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C25" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D25" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E25" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F25" t="n">
-        <v>918</v>
+        <v>10030</v>
       </c>
       <c r="G25" t="n">
-        <v>-29258.88809098551</v>
+        <v>-5005.418390985504</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1352,22 +1336,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C26" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D26" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E26" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F26" t="n">
-        <v>4397.9999</v>
+        <v>248.3186</v>
       </c>
       <c r="G26" t="n">
-        <v>-29258.88809098551</v>
+        <v>-4757.099790985504</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1388,22 +1372,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C27" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D27" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E27" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F27" t="n">
-        <v>1331.8284</v>
+        <v>4751.6814</v>
       </c>
       <c r="G27" t="n">
-        <v>-29258.88809098551</v>
+        <v>-4757.099790985504</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1424,22 +1408,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C28" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D28" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E28" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F28" t="n">
-        <v>238.9832</v>
+        <v>600</v>
       </c>
       <c r="G28" t="n">
-        <v>-29258.88809098551</v>
+        <v>-4757.099790985504</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1460,28 +1444,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C29" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D29" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E29" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F29" t="n">
-        <v>531</v>
+        <v>51.4898</v>
       </c>
       <c r="G29" t="n">
-        <v>-29258.88809098551</v>
+        <v>-4757.099790985504</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1496,28 +1480,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C30" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D30" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E30" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F30" t="n">
-        <v>2016</v>
+        <v>5566.2498</v>
       </c>
       <c r="G30" t="n">
-        <v>-29258.88809098551</v>
+        <v>-10323.3495909855</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1532,22 +1516,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C31" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D31" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E31" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F31" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="G31" t="n">
-        <v>-29258.88809098551</v>
+        <v>-10323.3495909855</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1568,22 +1552,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C32" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D32" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E32" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F32" t="n">
-        <v>1250</v>
+        <v>8272.874299999999</v>
       </c>
       <c r="G32" t="n">
-        <v>-28008.88809098551</v>
+        <v>-18596.2238909855</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1604,28 +1588,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C33" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D33" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E33" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F33" t="n">
-        <v>1000</v>
+        <v>7012.4524</v>
       </c>
       <c r="G33" t="n">
-        <v>-28008.88809098551</v>
+        <v>-18596.2238909855</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1643,25 +1627,25 @@
         <v>178</v>
       </c>
       <c r="C34" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D34" t="n">
         <v>178</v>
       </c>
       <c r="E34" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F34" t="n">
-        <v>5933.2365</v>
+        <v>8787.146699999999</v>
       </c>
       <c r="G34" t="n">
-        <v>-33942.12459098551</v>
+        <v>-27383.37059098551</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1676,28 +1660,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C35" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D35" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E35" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F35" t="n">
-        <v>1877</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>-33942.12459098551</v>
+        <v>-27382.37059098551</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1712,22 +1696,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C36" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D36" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E36" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F36" t="n">
-        <v>5107.2513</v>
+        <v>879.6224999999999</v>
       </c>
       <c r="G36" t="n">
-        <v>-28834.87329098551</v>
+        <v>-28261.99309098551</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1748,22 +1732,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C37" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D37" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E37" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F37" t="n">
-        <v>9446.75</v>
+        <v>5389.6633</v>
       </c>
       <c r="G37" t="n">
-        <v>-38281.6232909855</v>
+        <v>-28261.99309098551</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1796,10 +1780,10 @@
         <v>178</v>
       </c>
       <c r="F38" t="n">
-        <v>13814.2743</v>
+        <v>18063.8685</v>
       </c>
       <c r="G38" t="n">
-        <v>-38281.6232909855</v>
+        <v>-10198.12459098551</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1820,22 +1804,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C39" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D39" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E39" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>225.3423</v>
       </c>
       <c r="G39" t="n">
-        <v>-38280.6232909855</v>
+        <v>-10198.12459098551</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1856,22 +1840,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C40" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D40" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E40" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F40" t="n">
-        <v>82170</v>
+        <v>3115.3033</v>
       </c>
       <c r="G40" t="n">
-        <v>-38280.6232909855</v>
+        <v>-10198.12459098551</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1892,22 +1876,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C41" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D41" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E41" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F41" t="n">
-        <v>1764000</v>
+        <v>10666</v>
       </c>
       <c r="G41" t="n">
-        <v>-1802280.623290986</v>
+        <v>-10198.12459098551</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1928,22 +1912,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C42" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D42" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E42" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F42" t="n">
-        <v>2845500</v>
+        <v>12074.8165</v>
       </c>
       <c r="G42" t="n">
-        <v>-1802280.623290986</v>
+        <v>-10198.12459098551</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1964,22 +1948,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C43" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D43" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E43" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F43" t="n">
-        <v>2810698.9914</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>-1802280.623290986</v>
+        <v>-10197.12459098551</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2000,22 +1984,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C44" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D44" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E44" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F44" t="n">
-        <v>1228554.5604</v>
+        <v>2663.2245</v>
       </c>
       <c r="G44" t="n">
-        <v>-573726.0628909855</v>
+        <v>-12860.34909098551</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2036,22 +2020,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C45" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D45" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E45" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F45" t="n">
-        <v>295.3079</v>
+        <v>4473.4984</v>
       </c>
       <c r="G45" t="n">
-        <v>-574021.3707909855</v>
+        <v>-12860.34909098551</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2072,22 +2056,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C46" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D46" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E46" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F46" t="n">
-        <v>2527.3844</v>
+        <v>3427.8452</v>
       </c>
       <c r="G46" t="n">
-        <v>-571493.9863909855</v>
+        <v>-12860.34909098551</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2108,22 +2092,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C47" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D47" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E47" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F47" t="n">
-        <v>2549.6351</v>
+        <v>2565.9996</v>
       </c>
       <c r="G47" t="n">
-        <v>-571493.9863909855</v>
+        <v>-12860.34909098551</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2144,22 +2128,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C48" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D48" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E48" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F48" t="n">
-        <v>400</v>
+        <v>7175.4119</v>
       </c>
       <c r="G48" t="n">
-        <v>-571493.9863909855</v>
+        <v>-12860.34909098551</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2180,22 +2164,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C49" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D49" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E49" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F49" t="n">
-        <v>1328.1387</v>
+        <v>2000</v>
       </c>
       <c r="G49" t="n">
-        <v>-571493.9863909855</v>
+        <v>-12860.34909098551</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2216,22 +2200,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C50" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D50" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E50" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F50" t="n">
-        <v>1910</v>
+        <v>3879.4105</v>
       </c>
       <c r="G50" t="n">
-        <v>-571493.9863909855</v>
+        <v>-12860.34909098551</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2252,22 +2236,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C51" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D51" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E51" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F51" t="n">
-        <v>1593.2707</v>
+        <v>239.9999</v>
       </c>
       <c r="G51" t="n">
-        <v>-571493.9863909855</v>
+        <v>-12860.34909098551</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2288,22 +2272,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C52" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D52" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E52" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F52" t="n">
-        <v>593.9999</v>
+        <v>16398.539</v>
       </c>
       <c r="G52" t="n">
-        <v>-571493.9863909855</v>
+        <v>-29258.88809098551</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2324,22 +2308,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C53" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D53" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E53" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F53" t="n">
-        <v>1866</v>
+        <v>559.857</v>
       </c>
       <c r="G53" t="n">
-        <v>-571493.9863909855</v>
+        <v>-29258.88809098551</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2360,22 +2344,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C54" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D54" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E54" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F54" t="n">
-        <v>1085</v>
+        <v>918</v>
       </c>
       <c r="G54" t="n">
-        <v>-571493.9863909855</v>
+        <v>-29258.88809098551</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2396,22 +2380,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C55" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D55" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E55" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F55" t="n">
-        <v>6157</v>
+        <v>4397.9999</v>
       </c>
       <c r="G55" t="n">
-        <v>-571493.9863909855</v>
+        <v>-29258.88809098551</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2432,22 +2416,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C56" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D56" t="n">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E56" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F56" t="n">
-        <v>4230.9665</v>
+        <v>1331.8284</v>
       </c>
       <c r="G56" t="n">
-        <v>-571493.9863909855</v>
+        <v>-29258.88809098551</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2468,31 +2452,35 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C57" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D57" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E57" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F57" t="n">
-        <v>14</v>
+        <v>238.9832</v>
       </c>
       <c r="G57" t="n">
-        <v>-571493.9863909855</v>
+        <v>-29258.88809098551</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>178</v>
+      </c>
+      <c r="K57" t="n">
+        <v>178</v>
+      </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
@@ -2504,22 +2492,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C58" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D58" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E58" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F58" t="n">
-        <v>34</v>
+        <v>531</v>
       </c>
       <c r="G58" t="n">
-        <v>-571493.9863909855</v>
+        <v>-29258.88809098551</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2528,8 +2516,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>178</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2540,22 +2534,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C59" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D59" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E59" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F59" t="n">
-        <v>73</v>
+        <v>2016</v>
       </c>
       <c r="G59" t="n">
-        <v>-571493.9863909855</v>
+        <v>-29258.88809098551</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2564,8 +2558,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>178</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2576,31 +2576,35 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C60" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E60" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F60" t="n">
-        <v>2110</v>
+        <v>1300</v>
       </c>
       <c r="G60" t="n">
-        <v>-573603.9863909855</v>
+        <v>-29258.88809098551</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>178</v>
+      </c>
+      <c r="K60" t="n">
+        <v>178</v>
+      </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
@@ -2612,32 +2616,40 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C61" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D61" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E61" t="n">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>1250</v>
       </c>
       <c r="G61" t="n">
-        <v>-573602.9863909855</v>
+        <v>-28008.88809098551</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>178</v>
+      </c>
+      <c r="K61" t="n">
+        <v>178</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2648,22 +2660,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C62" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E62" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F62" t="n">
-        <v>1531</v>
+        <v>1000</v>
       </c>
       <c r="G62" t="n">
-        <v>-575133.9863909855</v>
+        <v>-28008.88809098551</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2672,8 +2684,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>178</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2684,22 +2702,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C63" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D63" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E63" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F63" t="n">
-        <v>377</v>
+        <v>5933.2365</v>
       </c>
       <c r="G63" t="n">
-        <v>-575133.9863909855</v>
+        <v>-33942.12459098551</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2720,22 +2738,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C64" t="n">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D64" t="n">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E64" t="n">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>1877</v>
       </c>
       <c r="G64" t="n">
-        <v>-575132.9863909855</v>
+        <v>-33942.12459098551</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2756,7 +2774,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C65" t="n">
         <v>181</v>
@@ -2765,13 +2783,13 @@
         <v>181</v>
       </c>
       <c r="E65" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F65" t="n">
-        <v>1179.9495</v>
+        <v>5107.2513</v>
       </c>
       <c r="G65" t="n">
-        <v>-576312.9358909855</v>
+        <v>-28834.87329098551</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2792,22 +2810,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C66" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D66" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E66" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F66" t="n">
-        <v>53</v>
+        <v>9446.75</v>
       </c>
       <c r="G66" t="n">
-        <v>-576312.9358909855</v>
+        <v>-38281.6232909855</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2828,22 +2846,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C67" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D67" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E67" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F67" t="n">
-        <v>1316.0106</v>
+        <v>13814.2743</v>
       </c>
       <c r="G67" t="n">
-        <v>-576312.9358909855</v>
+        <v>-38281.6232909855</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2876,10 +2894,10 @@
         <v>181</v>
       </c>
       <c r="F68" t="n">
-        <v>2299.3328</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>-576312.9358909855</v>
+        <v>-38280.6232909855</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2912,10 +2930,10 @@
         <v>181</v>
       </c>
       <c r="F69" t="n">
-        <v>609.0657</v>
+        <v>82170</v>
       </c>
       <c r="G69" t="n">
-        <v>-576312.9358909855</v>
+        <v>-38280.6232909855</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2936,22 +2954,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C70" t="n">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D70" t="n">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E70" t="n">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F70" t="n">
-        <v>443.5483</v>
+        <v>1764000</v>
       </c>
       <c r="G70" t="n">
-        <v>-575869.3875909855</v>
+        <v>-1802280.623290986</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2972,22 +2990,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C71" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D71" t="n">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E71" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F71" t="n">
-        <v>2176.4517</v>
+        <v>2845500</v>
       </c>
       <c r="G71" t="n">
-        <v>-578045.8392909855</v>
+        <v>-1802280.623290986</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3008,22 +3026,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C72" t="n">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D72" t="n">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E72" t="n">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>2810698.9914</v>
       </c>
       <c r="G72" t="n">
-        <v>-578044.8392909855</v>
+        <v>-1802280.623290986</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3044,22 +3062,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C73" t="n">
         <v>181</v>
       </c>
       <c r="D73" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E73" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F73" t="n">
-        <v>2542</v>
+        <v>1228554.5604</v>
       </c>
       <c r="G73" t="n">
-        <v>-580586.8392909855</v>
+        <v>-573726.0628909855</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3080,22 +3098,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C74" t="n">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D74" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E74" t="n">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F74" t="n">
-        <v>1671</v>
+        <v>295.3079</v>
       </c>
       <c r="G74" t="n">
-        <v>-578915.8392909855</v>
+        <v>-574021.3707909855</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3116,22 +3134,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C75" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D75" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E75" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F75" t="n">
-        <v>2325</v>
+        <v>2527.3844</v>
       </c>
       <c r="G75" t="n">
-        <v>-578915.8392909855</v>
+        <v>-571493.9863909855</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3155,19 +3173,19 @@
         <v>182</v>
       </c>
       <c r="C76" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D76" t="n">
         <v>182</v>
       </c>
       <c r="E76" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F76" t="n">
-        <v>888</v>
+        <v>2549.6351</v>
       </c>
       <c r="G76" t="n">
-        <v>-578915.8392909855</v>
+        <v>-571493.9863909855</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3188,22 +3206,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C77" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D77" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E77" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F77" t="n">
-        <v>262</v>
+        <v>400</v>
       </c>
       <c r="G77" t="n">
-        <v>-578915.8392909855</v>
+        <v>-571493.9863909855</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3224,22 +3242,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C78" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D78" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E78" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F78" t="n">
-        <v>4189.6303</v>
+        <v>1328.1387</v>
       </c>
       <c r="G78" t="n">
-        <v>-578915.8392909855</v>
+        <v>-571493.9863909855</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3260,22 +3278,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C79" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D79" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E79" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F79" t="n">
-        <v>305.2999</v>
+        <v>1910</v>
       </c>
       <c r="G79" t="n">
-        <v>-578915.8392909855</v>
+        <v>-571493.9863909855</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3296,22 +3314,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C80" t="n">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D80" t="n">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E80" t="n">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F80" t="n">
-        <v>3.75</v>
+        <v>1593.2707</v>
       </c>
       <c r="G80" t="n">
-        <v>-578912.0892909855</v>
+        <v>-571493.9863909855</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3332,28 +3350,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C81" t="n">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D81" t="n">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E81" t="n">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F81" t="n">
-        <v>10</v>
+        <v>593.9999</v>
       </c>
       <c r="G81" t="n">
-        <v>-578912.0892909855</v>
+        <v>-571493.9863909855</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3368,28 +3386,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C82" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D82" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E82" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F82" t="n">
-        <v>10</v>
+        <v>1866</v>
       </c>
       <c r="G82" t="n">
-        <v>-578922.0892909855</v>
+        <v>-571493.9863909855</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3404,22 +3422,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C83" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D83" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E83" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F83" t="n">
-        <v>15</v>
+        <v>1085</v>
       </c>
       <c r="G83" t="n">
-        <v>-578922.0892909855</v>
+        <v>-571493.9863909855</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3440,22 +3458,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C84" t="n">
         <v>181</v>
       </c>
       <c r="D84" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E84" t="n">
         <v>181</v>
       </c>
       <c r="F84" t="n">
-        <v>229.4048</v>
+        <v>6157</v>
       </c>
       <c r="G84" t="n">
-        <v>-579151.4940909855</v>
+        <v>-571493.9863909855</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3485,13 +3503,13 @@
         <v>182</v>
       </c>
       <c r="E85" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F85" t="n">
-        <v>6877.5901</v>
+        <v>4230.9665</v>
       </c>
       <c r="G85" t="n">
-        <v>-579151.4940909855</v>
+        <v>-571493.9863909855</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3512,22 +3530,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C86" t="n">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D86" t="n">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E86" t="n">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G86" t="n">
-        <v>-579150.4940909855</v>
+        <v>-571493.9863909855</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3548,28 +3566,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C87" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D87" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E87" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F87" t="n">
-        <v>210.9999</v>
+        <v>34</v>
       </c>
       <c r="G87" t="n">
-        <v>-579361.4939909856</v>
+        <v>-571493.9863909855</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3584,28 +3602,28 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C88" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D88" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E88" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F88" t="n">
-        <v>450</v>
+        <v>73</v>
       </c>
       <c r="G88" t="n">
-        <v>-578911.4939909856</v>
+        <v>-571493.9863909855</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3620,22 +3638,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C89" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D89" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E89" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F89" t="n">
-        <v>1857</v>
+        <v>2110</v>
       </c>
       <c r="G89" t="n">
-        <v>-580768.4939909856</v>
+        <v>-573603.9863909855</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3656,31 +3674,35 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C90" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D90" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E90" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F90" t="n">
-        <v>70.7045</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>-580768.4939909856</v>
+        <v>-573602.9863909855</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>180</v>
+      </c>
+      <c r="K90" t="n">
+        <v>180</v>
+      </c>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
@@ -3692,22 +3714,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C91" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D91" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E91" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F91" t="n">
-        <v>5127.4875</v>
+        <v>1531</v>
       </c>
       <c r="G91" t="n">
-        <v>-580768.4939909856</v>
+        <v>-575133.9863909855</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3716,8 +3738,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>180</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3728,22 +3756,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C92" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D92" t="n">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E92" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F92" t="n">
-        <v>13699</v>
+        <v>377</v>
       </c>
       <c r="G92" t="n">
-        <v>-580768.4939909856</v>
+        <v>-575133.9863909855</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3752,8 +3780,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>180</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3764,28 +3798,28 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C93" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D93" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E93" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F93" t="n">
-        <v>750.2747000000001</v>
+        <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>-580018.2192909856</v>
+        <v>-575132.9863909855</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3800,28 +3834,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C94" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D94" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E94" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F94" t="n">
-        <v>1978.9999</v>
+        <v>1179.9495</v>
       </c>
       <c r="G94" t="n">
-        <v>-580018.2192909856</v>
+        <v>-576312.9358909855</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3836,28 +3870,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C95" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D95" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E95" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F95" t="n">
-        <v>779</v>
+        <v>53</v>
       </c>
       <c r="G95" t="n">
-        <v>-580018.2192909856</v>
+        <v>-576312.9358909855</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3872,28 +3906,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C96" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D96" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E96" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F96" t="n">
-        <v>208</v>
+        <v>1316.0106</v>
       </c>
       <c r="G96" t="n">
-        <v>-580018.2192909856</v>
+        <v>-576312.9358909855</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3908,28 +3942,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C97" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D97" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E97" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F97" t="n">
-        <v>227.9999</v>
+        <v>2299.3328</v>
       </c>
       <c r="G97" t="n">
-        <v>-580018.2192909856</v>
+        <v>-576312.9358909855</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -3944,28 +3978,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C98" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D98" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E98" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F98" t="n">
-        <v>1400</v>
+        <v>609.0657</v>
       </c>
       <c r="G98" t="n">
-        <v>-581418.2192909856</v>
+        <v>-576312.9358909855</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -3980,28 +4014,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C99" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D99" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E99" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F99" t="n">
-        <v>4925</v>
+        <v>443.5483</v>
       </c>
       <c r="G99" t="n">
-        <v>-586343.2192909856</v>
+        <v>-575869.3875909855</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4016,28 +4050,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C100" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D100" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E100" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F100" t="n">
-        <v>7896.743</v>
+        <v>2176.4517</v>
       </c>
       <c r="G100" t="n">
-        <v>-586343.2192909856</v>
+        <v>-578045.8392909855</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4052,22 +4086,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C101" t="n">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D101" t="n">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E101" t="n">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F101" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>-586263.2192909856</v>
+        <v>-578044.8392909855</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4088,7 +4122,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C102" t="n">
         <v>181</v>
@@ -4100,23 +4134,19 @@
         <v>181</v>
       </c>
       <c r="F102" t="n">
-        <v>3485.5025</v>
+        <v>2542</v>
       </c>
       <c r="G102" t="n">
-        <v>-582777.7167909857</v>
+        <v>-580586.8392909855</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>179</v>
-      </c>
-      <c r="K102" t="n">
-        <v>179</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
@@ -4128,40 +4158,32 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C103" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D103" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E103" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F103" t="n">
-        <v>375</v>
+        <v>1671</v>
       </c>
       <c r="G103" t="n">
-        <v>-583152.7167909857</v>
+        <v>-578915.8392909855</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" t="n">
-        <v>181</v>
-      </c>
-      <c r="K103" t="n">
-        <v>179</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4172,38 +4194,32 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C104" t="n">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D104" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E104" t="n">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F104" t="n">
-        <v>775</v>
+        <v>2325</v>
       </c>
       <c r="G104" t="n">
-        <v>-583927.7167909857</v>
+        <v>-578915.8392909855</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>179</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4214,38 +4230,32 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C105" t="n">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D105" t="n">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E105" t="n">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F105" t="n">
-        <v>60</v>
+        <v>888</v>
       </c>
       <c r="G105" t="n">
-        <v>-583927.7167909857</v>
+        <v>-578915.8392909855</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>179</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4256,22 +4266,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C106" t="n">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D106" t="n">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E106" t="n">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F106" t="n">
-        <v>59</v>
+        <v>262</v>
       </c>
       <c r="G106" t="n">
-        <v>-583927.7167909857</v>
+        <v>-578915.8392909855</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4280,14 +4290,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>179</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4298,22 +4302,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C107" t="n">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D107" t="n">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E107" t="n">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F107" t="n">
-        <v>4291.113</v>
+        <v>4189.6303</v>
       </c>
       <c r="G107" t="n">
-        <v>-583927.7167909857</v>
+        <v>-578915.8392909855</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4322,14 +4326,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>179</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4340,22 +4338,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C108" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D108" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E108" t="n">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F108" t="n">
-        <v>261</v>
+        <v>305.2999</v>
       </c>
       <c r="G108" t="n">
-        <v>-583666.7167909857</v>
+        <v>-578915.8392909855</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4364,14 +4362,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>179</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4382,40 +4374,32 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C109" t="n">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D109" t="n">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E109" t="n">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F109" t="n">
-        <v>1442.9999</v>
+        <v>3.75</v>
       </c>
       <c r="G109" t="n">
-        <v>-585109.7166909857</v>
+        <v>-578912.0892909855</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>178</v>
-      </c>
-      <c r="K109" t="n">
-        <v>179</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4426,38 +4410,32 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C110" t="n">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D110" t="n">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E110" t="n">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F110" t="n">
-        <v>98.1965</v>
+        <v>10</v>
       </c>
       <c r="G110" t="n">
-        <v>-585011.5201909858</v>
+        <v>-578912.0892909855</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>179</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4468,40 +4446,32 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C111" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D111" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E111" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F111" t="n">
-        <v>508</v>
+        <v>10</v>
       </c>
       <c r="G111" t="n">
-        <v>-585011.5201909858</v>
+        <v>-578922.0892909855</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>178</v>
-      </c>
-      <c r="K111" t="n">
-        <v>179</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4512,22 +4482,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C112" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D112" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E112" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F112" t="n">
-        <v>1138</v>
+        <v>15</v>
       </c>
       <c r="G112" t="n">
-        <v>-585011.5201909858</v>
+        <v>-578922.0892909855</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4536,14 +4506,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>179</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4554,40 +4518,32 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C113" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D113" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E113" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F113" t="n">
-        <v>1063.887</v>
+        <v>229.4048</v>
       </c>
       <c r="G113" t="n">
-        <v>-583947.6331909858</v>
+        <v>-579151.4940909855</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>178</v>
-      </c>
-      <c r="K113" t="n">
-        <v>179</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4598,22 +4554,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C114" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D114" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E114" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F114" t="n">
-        <v>1</v>
+        <v>6877.5901</v>
       </c>
       <c r="G114" t="n">
-        <v>-583946.6331909858</v>
+        <v>-579151.4940909855</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4622,14 +4578,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>179</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4640,22 +4590,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C115" t="n">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D115" t="n">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E115" t="n">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F115" t="n">
-        <v>52.9833</v>
+        <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>-583946.6331909858</v>
+        <v>-579150.4940909855</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4664,14 +4614,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>179</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4682,42 +4626,1080 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C116" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D116" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E116" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F116" t="n">
+        <v>210.9999</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-579361.4939909856</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>182</v>
+      </c>
+      <c r="C117" t="n">
+        <v>183</v>
+      </c>
+      <c r="D117" t="n">
+        <v>183</v>
+      </c>
+      <c r="E117" t="n">
+        <v>182</v>
+      </c>
+      <c r="F117" t="n">
+        <v>450</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-578911.4939909856</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>181</v>
+      </c>
+      <c r="C118" t="n">
+        <v>181</v>
+      </c>
+      <c r="D118" t="n">
+        <v>181</v>
+      </c>
+      <c r="E118" t="n">
+        <v>181</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1857</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-580768.4939909856</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>181</v>
+      </c>
+      <c r="C119" t="n">
+        <v>181</v>
+      </c>
+      <c r="D119" t="n">
+        <v>181</v>
+      </c>
+      <c r="E119" t="n">
+        <v>181</v>
+      </c>
+      <c r="F119" t="n">
+        <v>70.7045</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-580768.4939909856</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>181</v>
+      </c>
+      <c r="C120" t="n">
+        <v>181</v>
+      </c>
+      <c r="D120" t="n">
+        <v>181</v>
+      </c>
+      <c r="E120" t="n">
+        <v>181</v>
+      </c>
+      <c r="F120" t="n">
+        <v>5127.4875</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-580768.4939909856</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>182</v>
+      </c>
+      <c r="C121" t="n">
+        <v>181</v>
+      </c>
+      <c r="D121" t="n">
+        <v>184</v>
+      </c>
+      <c r="E121" t="n">
+        <v>181</v>
+      </c>
+      <c r="F121" t="n">
+        <v>13699</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-580768.4939909856</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>182</v>
+      </c>
+      <c r="C122" t="n">
+        <v>182</v>
+      </c>
+      <c r="D122" t="n">
+        <v>182</v>
+      </c>
+      <c r="E122" t="n">
+        <v>182</v>
+      </c>
+      <c r="F122" t="n">
+        <v>750.2747000000001</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-580018.2192909856</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>182</v>
+      </c>
+      <c r="C123" t="n">
+        <v>182</v>
+      </c>
+      <c r="D123" t="n">
+        <v>182</v>
+      </c>
+      <c r="E123" t="n">
+        <v>182</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1978.9999</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-580018.2192909856</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>182</v>
+      </c>
+      <c r="C124" t="n">
+        <v>182</v>
+      </c>
+      <c r="D124" t="n">
+        <v>182</v>
+      </c>
+      <c r="E124" t="n">
+        <v>182</v>
+      </c>
+      <c r="F124" t="n">
+        <v>779</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-580018.2192909856</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>182</v>
+      </c>
+      <c r="C125" t="n">
+        <v>182</v>
+      </c>
+      <c r="D125" t="n">
+        <v>182</v>
+      </c>
+      <c r="E125" t="n">
+        <v>182</v>
+      </c>
+      <c r="F125" t="n">
+        <v>208</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-580018.2192909856</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>182</v>
+      </c>
+      <c r="C126" t="n">
+        <v>182</v>
+      </c>
+      <c r="D126" t="n">
+        <v>182</v>
+      </c>
+      <c r="E126" t="n">
+        <v>182</v>
+      </c>
+      <c r="F126" t="n">
+        <v>227.9999</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-580018.2192909856</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>180</v>
+      </c>
+      <c r="C127" t="n">
+        <v>180</v>
+      </c>
+      <c r="D127" t="n">
+        <v>180</v>
+      </c>
+      <c r="E127" t="n">
+        <v>180</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1400</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-581418.2192909856</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>179</v>
+      </c>
+      <c r="C128" t="n">
+        <v>178</v>
+      </c>
+      <c r="D128" t="n">
+        <v>179</v>
+      </c>
+      <c r="E128" t="n">
+        <v>178</v>
+      </c>
+      <c r="F128" t="n">
+        <v>4925</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-586343.2192909856</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>178</v>
+      </c>
+      <c r="C129" t="n">
+        <v>178</v>
+      </c>
+      <c r="D129" t="n">
+        <v>178</v>
+      </c>
+      <c r="E129" t="n">
+        <v>178</v>
+      </c>
+      <c r="F129" t="n">
+        <v>7896.743</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-586343.2192909856</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>179</v>
+      </c>
+      <c r="C130" t="n">
+        <v>179</v>
+      </c>
+      <c r="D130" t="n">
+        <v>179</v>
+      </c>
+      <c r="E130" t="n">
+        <v>179</v>
+      </c>
+      <c r="F130" t="n">
+        <v>80</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-586263.2192909856</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>181</v>
+      </c>
+      <c r="C131" t="n">
+        <v>181</v>
+      </c>
+      <c r="D131" t="n">
+        <v>182</v>
+      </c>
+      <c r="E131" t="n">
+        <v>181</v>
+      </c>
+      <c r="F131" t="n">
+        <v>3485.5025</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-582777.7167909857</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>178</v>
+      </c>
+      <c r="C132" t="n">
+        <v>178</v>
+      </c>
+      <c r="D132" t="n">
+        <v>178</v>
+      </c>
+      <c r="E132" t="n">
+        <v>178</v>
+      </c>
+      <c r="F132" t="n">
+        <v>375</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-583152.7167909857</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>178</v>
+      </c>
+      <c r="C133" t="n">
+        <v>177</v>
+      </c>
+      <c r="D133" t="n">
+        <v>178</v>
+      </c>
+      <c r="E133" t="n">
+        <v>177</v>
+      </c>
+      <c r="F133" t="n">
+        <v>775</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-583927.7167909857</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>177</v>
+      </c>
+      <c r="C134" t="n">
+        <v>177</v>
+      </c>
+      <c r="D134" t="n">
+        <v>177</v>
+      </c>
+      <c r="E134" t="n">
+        <v>177</v>
+      </c>
+      <c r="F134" t="n">
+        <v>60</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-583927.7167909857</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>177</v>
+      </c>
+      <c r="C135" t="n">
+        <v>177</v>
+      </c>
+      <c r="D135" t="n">
+        <v>177</v>
+      </c>
+      <c r="E135" t="n">
+        <v>177</v>
+      </c>
+      <c r="F135" t="n">
+        <v>59</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-583927.7167909857</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>177</v>
+      </c>
+      <c r="C136" t="n">
+        <v>177</v>
+      </c>
+      <c r="D136" t="n">
+        <v>177</v>
+      </c>
+      <c r="E136" t="n">
+        <v>177</v>
+      </c>
+      <c r="F136" t="n">
+        <v>4291.113</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-583927.7167909857</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>177</v>
+      </c>
+      <c r="C137" t="n">
+        <v>178</v>
+      </c>
+      <c r="D137" t="n">
+        <v>178</v>
+      </c>
+      <c r="E137" t="n">
+        <v>177</v>
+      </c>
+      <c r="F137" t="n">
+        <v>261</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-583666.7167909857</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>178</v>
+      </c>
+      <c r="C138" t="n">
+        <v>177</v>
+      </c>
+      <c r="D138" t="n">
+        <v>178</v>
+      </c>
+      <c r="E138" t="n">
+        <v>177</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1442.9999</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-585109.7166909857</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>178</v>
+      </c>
+      <c r="C139" t="n">
+        <v>178</v>
+      </c>
+      <c r="D139" t="n">
+        <v>178</v>
+      </c>
+      <c r="E139" t="n">
+        <v>178</v>
+      </c>
+      <c r="F139" t="n">
+        <v>98.1965</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-585011.5201909858</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>178</v>
+      </c>
+      <c r="C140" t="n">
+        <v>178</v>
+      </c>
+      <c r="D140" t="n">
+        <v>178</v>
+      </c>
+      <c r="E140" t="n">
+        <v>178</v>
+      </c>
+      <c r="F140" t="n">
+        <v>508</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-585011.5201909858</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>179</v>
+      </c>
+      <c r="C141" t="n">
+        <v>178</v>
+      </c>
+      <c r="D141" t="n">
+        <v>179</v>
+      </c>
+      <c r="E141" t="n">
+        <v>178</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1138</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-585011.5201909858</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>179</v>
+      </c>
+      <c r="C142" t="n">
+        <v>179</v>
+      </c>
+      <c r="D142" t="n">
+        <v>179</v>
+      </c>
+      <c r="E142" t="n">
+        <v>179</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1063.887</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-583947.6331909858</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>180</v>
+      </c>
+      <c r="C143" t="n">
+        <v>180</v>
+      </c>
+      <c r="D143" t="n">
+        <v>180</v>
+      </c>
+      <c r="E143" t="n">
+        <v>180</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-583946.6331909858</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>180</v>
+      </c>
+      <c r="C144" t="n">
+        <v>180</v>
+      </c>
+      <c r="D144" t="n">
+        <v>180</v>
+      </c>
+      <c r="E144" t="n">
+        <v>180</v>
+      </c>
+      <c r="F144" t="n">
+        <v>52.9833</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-583946.6331909858</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>180</v>
+      </c>
+      <c r="C145" t="n">
+        <v>180</v>
+      </c>
+      <c r="D145" t="n">
+        <v>180</v>
+      </c>
+      <c r="E145" t="n">
+        <v>180</v>
+      </c>
+      <c r="F145" t="n">
         <v>1503.5398</v>
       </c>
-      <c r="G116" t="n">
+      <c r="G145" t="n">
         <v>-583946.6331909858</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>179</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-31 BackTest RDN.xlsx
+++ b/BackTest/2019-10-31 BackTest RDN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N145"/>
+  <dimension ref="A1:M145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,22 +517,15 @@
         <v>-2314.188386067471</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>179</v>
-      </c>
-      <c r="K4" t="n">
-        <v>179</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,24 +550,19 @@
         <v>-2314.188386067471</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>179</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>181</v>
+      </c>
+      <c r="J5" t="n">
+        <v>181</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -612,22 +589,19 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>179</v>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>181</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -652,22 +626,23 @@
         <v>-4543.102086067471</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="J7" t="n">
         <v>181</v>
       </c>
-      <c r="K7" t="n">
-        <v>181</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -692,26 +667,15 @@
         <v>378.9876139325297</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>180</v>
-      </c>
-      <c r="K8" t="n">
-        <v>181</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -738,22 +702,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>181</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -780,16 +735,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -816,16 +768,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -852,16 +801,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -888,16 +834,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -924,16 +867,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -960,16 +900,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -996,16 +933,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1032,16 +966,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1068,16 +999,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1104,16 +1032,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1140,16 +1065,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1176,16 +1098,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1212,16 +1131,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1248,16 +1164,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1282,18 +1195,15 @@
         <v>5024.581609014496</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1318,18 +1228,15 @@
         <v>-5005.418390985504</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1354,18 +1261,15 @@
         <v>-4757.099790985504</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1390,18 +1294,15 @@
         <v>-4757.099790985504</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1428,16 +1329,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1464,16 +1362,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1500,16 +1395,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1536,16 +1428,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1572,16 +1461,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1608,16 +1494,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1644,16 +1527,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1680,16 +1560,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1716,16 +1593,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1752,16 +1626,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1788,16 +1659,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1824,16 +1692,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1860,16 +1725,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1896,16 +1758,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1930,18 +1789,19 @@
         <v>-10198.12459098551</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
+        <v>178</v>
+      </c>
+      <c r="J42" t="n">
+        <v>178</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1966,18 +1826,23 @@
         <v>-10197.12459098551</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+        <v>178</v>
+      </c>
+      <c r="J43" t="n">
+        <v>178</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2004,16 +1869,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>178</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2040,16 +1908,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2076,16 +1941,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2112,16 +1974,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2148,16 +2007,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2184,16 +2040,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2220,16 +2073,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2256,16 +2106,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2292,16 +2139,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2328,16 +2172,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2364,16 +2205,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2400,16 +2238,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2436,16 +2271,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2470,22 +2302,15 @@
         <v>-29258.88809098551</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>178</v>
-      </c>
-      <c r="K57" t="n">
-        <v>178</v>
-      </c>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2512,22 +2337,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>178</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2554,22 +2370,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>178</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2594,22 +2401,15 @@
         <v>-29258.88809098551</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>178</v>
-      </c>
-      <c r="K60" t="n">
-        <v>178</v>
-      </c>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2634,26 +2434,15 @@
         <v>-28008.88809098551</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>178</v>
-      </c>
-      <c r="K61" t="n">
-        <v>178</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2680,22 +2469,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>178</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2722,16 +2502,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2758,16 +2535,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2794,16 +2568,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2830,16 +2601,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2866,16 +2634,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2902,16 +2667,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2938,16 +2700,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2974,16 +2733,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3010,16 +2766,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3046,16 +2799,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3082,16 +2832,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3118,16 +2865,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3154,16 +2898,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3190,16 +2931,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3226,16 +2964,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3262,16 +2997,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3298,16 +3030,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3334,16 +3063,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3370,16 +3096,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3406,16 +3129,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3442,16 +3162,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3478,16 +3195,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3514,16 +3228,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3550,16 +3261,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3586,16 +3294,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3622,16 +3327,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3658,16 +3360,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3692,22 +3391,15 @@
         <v>-573602.9863909855</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>180</v>
-      </c>
-      <c r="K90" t="n">
-        <v>180</v>
-      </c>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3734,22 +3426,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>180</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3776,22 +3459,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>180</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3818,16 +3492,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3854,16 +3525,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3890,16 +3558,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3926,16 +3591,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3962,16 +3624,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3996,18 +3655,19 @@
         <v>-576312.9358909855</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
+        <v>181</v>
+      </c>
+      <c r="J98" t="n">
+        <v>181</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4034,16 +3694,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>181</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4070,16 +3733,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>181</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4106,16 +3772,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>181</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4142,16 +3811,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>181</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4178,16 +3850,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>181</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4214,16 +3889,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>181</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4250,16 +3928,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>181</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4286,16 +3967,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>181</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4322,16 +4006,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>181</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4358,16 +4045,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>181</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4394,16 +4084,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>181</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4430,16 +4123,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>181</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4466,16 +4162,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>181</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4502,16 +4201,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>181</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4538,16 +4240,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>181</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4574,16 +4279,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>181</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4610,16 +4318,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>181</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4646,16 +4357,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>181</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4682,16 +4396,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>181</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4718,16 +4435,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>181</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4754,16 +4474,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>181</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4790,16 +4513,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>181</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4826,16 +4552,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>181</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4862,16 +4591,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>181</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4898,16 +4630,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>181</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4934,16 +4669,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>181</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4970,16 +4708,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>181</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5006,16 +4747,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>181</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5042,16 +4786,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>181</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5078,16 +4825,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>181</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5114,16 +4864,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>181</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5150,16 +4903,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>181</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5186,16 +4942,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>181</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5222,16 +4981,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>181</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5258,16 +5020,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>181</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5294,16 +5059,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>181</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5330,16 +5098,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>181</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5366,16 +5137,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>181</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5402,16 +5176,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>181</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5438,16 +5215,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>181</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5474,16 +5254,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>181</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5510,16 +5293,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>181</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5546,16 +5332,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>181</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5582,16 +5371,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>181</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5618,16 +5410,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>181</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5654,16 +5449,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>181</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5688,20 +5486,23 @@
         <v>-583946.6331909858</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>181</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest RDN.xlsx
+++ b/BackTest/2019-10-31 BackTest RDN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>-2314.188386067471</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>181</v>
@@ -587,9 +587,11 @@
         <v>-2314.188386067471</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>181</v>
+      </c>
       <c r="J6" t="n">
         <v>181</v>
       </c>
@@ -626,7 +628,7 @@
         <v>-4543.102086067471</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>181</v>
@@ -667,10 +669,14 @@
         <v>378.9876139325297</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>180</v>
+      </c>
+      <c r="J8" t="n">
+        <v>180</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
@@ -703,8 +709,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>180</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -736,8 +748,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>180</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -799,7 +817,7 @@
         <v>-1861.05808606747</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -898,7 +916,7 @@
         <v>-1861.05808606747</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -931,7 +949,7 @@
         <v>-1201.05808606747</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -964,7 +982,7 @@
         <v>-1201.05808606747</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -997,7 +1015,7 @@
         <v>-2767.057986067471</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1030,7 +1048,7 @@
         <v>-2767.057986067471</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1195,7 +1213,7 @@
         <v>5024.581609014496</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1228,7 +1246,7 @@
         <v>-5005.418390985504</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1261,7 +1279,7 @@
         <v>-4757.099790985504</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1294,7 +1312,7 @@
         <v>-4757.099790985504</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1690,7 +1708,7 @@
         <v>-10198.12459098551</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1756,7 +1774,7 @@
         <v>-10198.12459098551</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1791,12 +1809,8 @@
       <c r="H42" t="n">
         <v>2</v>
       </c>
-      <c r="I42" t="n">
-        <v>178</v>
-      </c>
-      <c r="J42" t="n">
-        <v>178</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
@@ -1828,17 +1842,9 @@
       <c r="H43" t="n">
         <v>2</v>
       </c>
-      <c r="I43" t="n">
-        <v>178</v>
-      </c>
-      <c r="J43" t="n">
-        <v>178</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1867,17 +1873,11 @@
         <v>-12860.34909098551</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>178</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>-12860.34909098551</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1939,7 +1939,7 @@
         <v>-12860.34909098551</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1972,7 +1972,7 @@
         <v>-12860.34909098551</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2005,7 +2005,7 @@
         <v>-12860.34909098551</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2038,7 +2038,7 @@
         <v>-12860.34909098551</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2104,7 +2104,7 @@
         <v>-12860.34909098551</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2269,7 +2269,7 @@
         <v>-29258.88809098551</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2302,7 +2302,7 @@
         <v>-29258.88809098551</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2335,7 +2335,7 @@
         <v>-29258.88809098551</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2401,7 +2401,7 @@
         <v>-29258.88809098551</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -3424,7 +3424,7 @@
         <v>-575133.9863909855</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3457,10 +3457,14 @@
         <v>-575133.9863909855</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>180</v>
+      </c>
+      <c r="J92" t="n">
+        <v>180</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
@@ -3493,8 +3497,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>180</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3526,8 +3536,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>180</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3655,14 +3671,10 @@
         <v>-576312.9358909855</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>181</v>
-      </c>
-      <c r="J98" t="n">
-        <v>181</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
@@ -3692,17 +3704,15 @@
         <v>-575869.3875909855</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>181</v>
+      </c>
       <c r="J99" t="n">
         <v>181</v>
       </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4004,7 +4014,7 @@
         <v>-578915.8392909855</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
@@ -4043,7 +4053,7 @@
         <v>-578915.8392909855</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
@@ -4082,7 +4092,7 @@
         <v>-578912.0892909855</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
@@ -4121,7 +4131,7 @@
         <v>-578912.0892909855</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
@@ -4238,7 +4248,7 @@
         <v>-579151.4940909855</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
@@ -4246,11 +4256,11 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="M113" t="inlineStr"/>
     </row>
@@ -4277,17 +4287,11 @@
         <v>-579151.4940909855</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>181</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4316,17 +4320,11 @@
         <v>-579150.4940909855</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>181</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4358,14 +4356,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>181</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4394,17 +4386,11 @@
         <v>-578911.4939909856</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>181</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4436,14 +4422,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>181</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4475,14 +4455,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>181</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4514,14 +4488,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>181</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4553,14 +4521,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>181</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4589,17 +4551,11 @@
         <v>-580018.2192909856</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>181</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4628,17 +4584,11 @@
         <v>-580018.2192909856</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>181</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4667,17 +4617,11 @@
         <v>-580018.2192909856</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>181</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4706,17 +4650,11 @@
         <v>-580018.2192909856</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>181</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4745,17 +4683,11 @@
         <v>-580018.2192909856</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>181</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4784,17 +4716,11 @@
         <v>-581418.2192909856</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>181</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4823,17 +4749,11 @@
         <v>-586343.2192909856</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>181</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4862,17 +4782,11 @@
         <v>-586343.2192909856</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>181</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4901,17 +4815,11 @@
         <v>-586263.2192909856</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>181</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4940,17 +4848,11 @@
         <v>-582777.7167909857</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>181</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4979,17 +4881,11 @@
         <v>-583152.7167909857</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>181</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5021,14 +4917,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>181</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5057,17 +4947,11 @@
         <v>-583927.7167909857</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>181</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5099,14 +4983,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>181</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5138,14 +5016,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>181</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5177,14 +5049,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>181</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5216,14 +5082,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>181</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5255,14 +5115,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>181</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5294,14 +5148,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>181</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5333,14 +5181,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>181</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5372,14 +5214,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>181</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5411,14 +5247,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>181</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5450,14 +5280,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>181</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5486,23 +5310,17 @@
         <v>-583946.6331909858</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>181</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
       <c r="M145" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest RDN.xlsx
+++ b/BackTest/2019-10-31 BackTest RDN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,14 +550,10 @@
         <v>-2314.188386067471</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>181</v>
-      </c>
-      <c r="J5" t="n">
-        <v>181</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
@@ -587,19 +583,11 @@
         <v>-2314.188386067471</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>181</v>
-      </c>
-      <c r="J6" t="n">
-        <v>181</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -628,19 +616,11 @@
         <v>-4543.102086067471</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>181</v>
-      </c>
-      <c r="J7" t="n">
-        <v>181</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -669,14 +649,10 @@
         <v>378.9876139325297</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>180</v>
-      </c>
-      <c r="J8" t="n">
-        <v>180</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
@@ -709,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>180</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -748,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>180</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -817,7 +781,7 @@
         <v>-1861.05808606747</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -916,7 +880,7 @@
         <v>-1861.05808606747</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -982,7 +946,7 @@
         <v>-1201.05808606747</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1015,7 +979,7 @@
         <v>-2767.057986067471</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1048,7 +1012,7 @@
         <v>-2767.057986067471</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1246,7 +1210,7 @@
         <v>-5005.418390985504</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1279,7 +1243,7 @@
         <v>-4757.099790985504</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1708,7 +1672,7 @@
         <v>-10198.12459098551</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1774,7 +1738,7 @@
         <v>-10198.12459098551</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1807,7 +1771,7 @@
         <v>-10198.12459098551</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1840,7 +1804,7 @@
         <v>-10197.12459098551</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1873,7 +1837,7 @@
         <v>-12860.34909098551</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1906,7 +1870,7 @@
         <v>-12860.34909098551</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1939,7 +1903,7 @@
         <v>-12860.34909098551</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1972,7 +1936,7 @@
         <v>-12860.34909098551</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2005,7 +1969,7 @@
         <v>-12860.34909098551</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2038,7 +2002,7 @@
         <v>-12860.34909098551</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2104,7 +2068,7 @@
         <v>-12860.34909098551</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2269,7 +2233,7 @@
         <v>-29258.88809098551</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2302,7 +2266,7 @@
         <v>-29258.88809098551</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2335,7 +2299,7 @@
         <v>-29258.88809098551</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2401,10 +2365,14 @@
         <v>-29258.88809098551</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>178</v>
+      </c>
+      <c r="J60" t="n">
+        <v>178</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
@@ -2434,11 +2402,19 @@
         <v>-28008.88809098551</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>178</v>
+      </c>
+      <c r="J61" t="n">
+        <v>178</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2470,8 +2446,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>178</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -3424,7 +3406,7 @@
         <v>-575133.9863909855</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3457,14 +3439,10 @@
         <v>-575133.9863909855</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>180</v>
-      </c>
-      <c r="J92" t="n">
-        <v>180</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
@@ -3497,14 +3475,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>180</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3536,14 +3508,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>180</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3704,14 +3670,10 @@
         <v>-575869.3875909855</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>181</v>
-      </c>
-      <c r="J99" t="n">
-        <v>181</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
@@ -3744,14 +3706,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>181</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3783,14 +3739,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>181</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3822,14 +3772,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>181</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3861,14 +3805,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>181</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3900,14 +3838,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>181</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3939,14 +3871,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>181</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3978,14 +3904,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>181</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4014,17 +3934,11 @@
         <v>-578915.8392909855</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>181</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4053,17 +3967,11 @@
         <v>-578915.8392909855</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>181</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4092,17 +4000,11 @@
         <v>-578912.0892909855</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>181</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4131,17 +4033,11 @@
         <v>-578912.0892909855</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>181</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4173,14 +4069,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>181</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4212,14 +4102,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>181</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4248,19 +4132,13 @@
         <v>-579151.4940909855</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>181</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="M113" t="inlineStr"/>
     </row>
@@ -4287,7 +4165,7 @@
         <v>-579151.4940909855</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4320,7 +4198,7 @@
         <v>-579150.4940909855</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4386,7 +4264,7 @@
         <v>-578911.4939909856</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4551,7 +4429,7 @@
         <v>-580018.2192909856</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4584,7 +4462,7 @@
         <v>-580018.2192909856</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4617,7 +4495,7 @@
         <v>-580018.2192909856</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4650,7 +4528,7 @@
         <v>-580018.2192909856</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4683,7 +4561,7 @@
         <v>-580018.2192909856</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4716,7 +4594,7 @@
         <v>-581418.2192909856</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4749,7 +4627,7 @@
         <v>-586343.2192909856</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4782,7 +4660,7 @@
         <v>-586343.2192909856</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4815,7 +4693,7 @@
         <v>-586263.2192909856</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4848,7 +4726,7 @@
         <v>-582777.7167909857</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4881,7 +4759,7 @@
         <v>-583152.7167909857</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4947,7 +4825,7 @@
         <v>-583927.7167909857</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5321,6 +5199,6 @@
       <c r="M145" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest RDN.xlsx
+++ b/BackTest/2019-10-31 BackTest RDN.xlsx
@@ -517,10 +517,14 @@
         <v>-2314.188386067471</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>179</v>
+      </c>
+      <c r="J4" t="n">
+        <v>179</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
@@ -553,8 +557,14 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>179</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -586,8 +596,14 @@
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>179</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -913,7 +929,7 @@
         <v>-1201.05808606747</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1375,7 +1391,7 @@
         <v>-10323.3495909855</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -2365,14 +2381,10 @@
         <v>-29258.88809098551</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>178</v>
-      </c>
-      <c r="J60" t="n">
-        <v>178</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
@@ -2402,19 +2414,11 @@
         <v>-28008.88809098551</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>178</v>
-      </c>
-      <c r="J61" t="n">
-        <v>178</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2446,14 +2450,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>178</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2548,11 +2546,17 @@
         <v>-28834.87329098551</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>178</v>
+      </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2585,7 +2589,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2618,7 +2626,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2651,7 +2663,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2684,7 +2700,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2717,7 +2737,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2750,7 +2774,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2783,7 +2811,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2816,7 +2848,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2849,7 +2885,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2882,7 +2922,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2915,7 +2959,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2948,7 +2996,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2981,7 +3033,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3014,7 +3070,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3047,7 +3107,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3080,7 +3144,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3113,7 +3181,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3146,7 +3218,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3179,7 +3255,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3212,7 +3292,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3245,7 +3329,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3278,7 +3366,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3311,7 +3403,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3344,7 +3440,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3373,11 +3473,17 @@
         <v>-573602.9863909855</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>180</v>
+      </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3410,7 +3516,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3439,11 +3549,17 @@
         <v>-575133.9863909855</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>180</v>
+      </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3472,11 +3588,17 @@
         <v>-575132.9863909855</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>180</v>
+      </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3509,7 +3631,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3542,7 +3668,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3575,7 +3705,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3608,7 +3742,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3641,7 +3779,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3674,7 +3816,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3707,7 +3853,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3740,7 +3890,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3773,7 +3927,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3806,7 +3964,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3839,7 +4001,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3872,7 +4038,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3905,7 +4075,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3938,7 +4112,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3971,7 +4149,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4004,7 +4186,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4037,7 +4223,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4066,14 +4256,16 @@
         <v>-578922.0892909855</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
@@ -4264,7 +4456,7 @@
         <v>-578911.4939909856</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4396,7 +4588,7 @@
         <v>-580768.4939909856</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4429,7 +4621,7 @@
         <v>-580018.2192909856</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4462,7 +4654,7 @@
         <v>-580018.2192909856</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4495,7 +4687,7 @@
         <v>-580018.2192909856</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4528,7 +4720,7 @@
         <v>-580018.2192909856</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4594,7 +4786,7 @@
         <v>-581418.2192909856</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4726,7 +4918,7 @@
         <v>-582777.7167909857</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4792,7 +4984,7 @@
         <v>-583927.7167909857</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4957,11 +5149,17 @@
         <v>-585109.7166909857</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>178</v>
+      </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4990,11 +5188,17 @@
         <v>-585011.5201909858</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>177</v>
+      </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5023,11 +5227,17 @@
         <v>-585011.5201909858</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>178</v>
+      </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5056,11 +5266,17 @@
         <v>-585011.5201909858</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>178</v>
+      </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5089,11 +5305,17 @@
         <v>-583947.6331909858</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>178</v>
+      </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5126,7 +5348,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5155,11 +5381,17 @@
         <v>-583946.6331909858</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>180</v>
+      </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5192,7 +5424,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
